--- a/data/HR1_2/A_KPC_35_3/A_KPC_35_3_base.xlsx
+++ b/data/HR1_2/A_KPC_35_3/A_KPC_35_3_base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\A_KPC_35_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\A_KPC_35_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3E7D08-23E3-4971-9877-2C75F07DD3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFF7BCE-278F-4DFF-86DB-ED7BF79EE108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="870" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="4" r:id="rId1"/>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>1.2500000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2473,7 +2473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC5C45B-EC79-4B34-93BA-F1E16EABD698}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
